--- a/Framework/Storage/CommonRepository.xlsx
+++ b/Framework/Storage/CommonRepository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="853" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="853" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,18 @@
     <sheet name="EnterprisePrepaid_Provisioning" sheetId="4" r:id="rId3"/>
     <sheet name="EnterprisePostpaid_Provisioning" sheetId="5" r:id="rId4"/>
     <sheet name="FixedLine_Provisioning" sheetId="2" r:id="rId5"/>
+    <sheet name="Modify" sheetId="6" r:id="rId6"/>
+    <sheet name="Suspend" sheetId="7" r:id="rId7"/>
+    <sheet name="Resume" sheetId="8" r:id="rId8"/>
+    <sheet name="PlanChange" sheetId="9" r:id="rId9"/>
+    <sheet name="Disconnect" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="100">
   <si>
     <t>FirstName</t>
   </si>
@@ -311,6 +316,18 @@
   </si>
   <si>
     <t>Fixed Line Broadband Plans</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>Add_Addon</t>
+  </si>
+  <si>
+    <t>Remove_Addon</t>
+  </si>
+  <si>
+    <t>PlanChange_From</t>
   </si>
 </sst>
 </file>
@@ -348,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +381,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -427,6 +450,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,14 +944,14 @@
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I12:I13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
@@ -1036,7 +1062,7 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B2" t="s">
@@ -1106,7 +1132,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B3" t="s">
@@ -1194,13 +1220,38 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,8 +1508,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1768,7 @@
   <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,8 +2047,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,4 +2345,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>